--- a/results/synechocystis_sp_pcc_6803/Nitrogen_deprivation_Study/synechocystis_sp_pcc_6803_carbon_source_functional_composition.xlsx
+++ b/results/synechocystis_sp_pcc_6803/Nitrogen_deprivation_Study/synechocystis_sp_pcc_6803_carbon_source_functional_composition.xlsx
@@ -489,7 +489,7 @@
         <v>8.035714285714286</v>
       </c>
       <c r="C4" t="n">
-        <v>9.708737864077669</v>
+        <v>9.090909090909092</v>
       </c>
     </row>
     <row r="5">
@@ -502,7 +502,7 @@
         <v>7.142857142857142</v>
       </c>
       <c r="C5" t="n">
-        <v>8.737864077669903</v>
+        <v>9.09090909090909</v>
       </c>
     </row>
     <row r="6">
@@ -528,7 +528,7 @@
         <v>2.321428571428572</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9708737864077669</v>
+        <v>1.01010101010101</v>
       </c>
     </row>
     <row r="8">
@@ -554,7 +554,7 @@
         <v>1.071428571428571</v>
       </c>
       <c r="C9" t="n">
-        <v>1.941747572815534</v>
+        <v>2.02020202020202</v>
       </c>
     </row>
     <row r="10">
@@ -567,7 +567,7 @@
         <v>15.89285714285714</v>
       </c>
       <c r="C10" t="n">
-        <v>7.766990291262136</v>
+        <v>8.080808080808081</v>
       </c>
     </row>
     <row r="11">
@@ -606,7 +606,7 @@
         <v>1.071428571428571</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9708737864077669</v>
+        <v>1.01010101010101</v>
       </c>
     </row>
     <row r="14">
@@ -619,7 +619,7 @@
         <v>3.571428571428571</v>
       </c>
       <c r="C14" t="n">
-        <v>2.912621359223301</v>
+        <v>3.03030303030303</v>
       </c>
     </row>
   </sheetData>
@@ -633,7 +633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.785714285714286</v>
+        <v>1.551724137931034</v>
       </c>
       <c r="C2" t="n">
-        <v>1.941747572815534</v>
+        <v>1.219512195121951</v>
       </c>
     </row>
     <row r="3">
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -691,59 +691,59 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.392857142857143</v>
+        <v>2.413793103448276</v>
       </c>
       <c r="C4" t="n">
-        <v>3.883495145631068</v>
+        <v>4.878048780487805</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Biotin metabolism</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="C5" t="n">
-        <v>2.912621359223301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>C5-Branched dibasic acid metabolism</t>
+          <t>Biotin metabolism</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8928571428571428</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9708737864077669</v>
+        <v>3.658536585365853</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Carbon fixation</t>
+          <t>C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.25</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C7" t="n">
-        <v>1.941747572815534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Carotenoid Biosynthesis</t>
+          <t>Carbon fixation</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.25</v>
+        <v>1.03448275862069</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -752,11 +752,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Citrate cycle (TCA cycle)</t>
+          <t>Carotenoid Biosynthesis</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.25</v>
+        <v>2.241379310344827</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -765,11 +765,11 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Cyanophycin metabolism</t>
+          <t>Citrate cycle (TCA cycle)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3571428571428572</v>
+        <v>1.03448275862069</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -778,24 +778,24 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
+          <t>Cyanophycin metabolism</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.035714285714286</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="C11" t="n">
-        <v>2.912621359223301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Folate biosynthesis</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.142857142857143</v>
+        <v>3.275862068965517</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -804,24 +804,24 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Fructose and mannose metabolism</t>
+          <t>Fatty acid biosynthesis</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3571428571428572</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="C13" t="n">
-        <v>7.766990291262135</v>
+        <v>1.219512195121951</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Galactolipids metabolism</t>
+          <t>Folate biosynthesis</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3571428571428572</v>
+        <v>2.241379310344827</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -830,115 +830,115 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Glutamate metabolism</t>
+          <t>Fructose and mannose metabolism</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>6.097560975609756</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Glutathione metabolism</t>
+          <t>Galactolipids metabolism</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1785714285714286</v>
+        <v>4.655172413793104</v>
       </c>
       <c r="C16" t="n">
-        <v>3.883495145631068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Glycerolipid metabolism</t>
+          <t>Glutamate metabolism</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3571428571428572</v>
+        <v>1.206896551724138</v>
       </c>
       <c r="C17" t="n">
-        <v>1.941747572815534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Glutathione metabolism</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.75</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="C18" t="n">
-        <v>8.737864077669903</v>
+        <v>3.658536585365853</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Glyoxylate and dicarboxylate metabolism</t>
+          <t>Glycerolipid metabolism</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.5</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="C19" t="n">
-        <v>2.912621359223301</v>
+        <v>2.439024390243902</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Histidine metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.142857142857143</v>
+        <v>2.758620689655173</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>7.317073170731707</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production</t>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5357142857142857</v>
+        <v>1.551724137931034</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1.219512195121951</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Inositol phosphate metabolism</t>
+          <t>Histidine metabolism</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1785714285714286</v>
+        <v>1.551724137931034</v>
       </c>
       <c r="C22" t="n">
-        <v>4.854368932038835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide biosynthesis</t>
+          <t>Hydrogen production</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8928571428571428</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -947,24 +947,24 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Lysine metabolism</t>
+          <t>Inositol phosphate metabolism</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.428571428571429</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9708737864077669</v>
+        <v>2.439024390243902</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Nicotinate and nicotinamide metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8928571428571428</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -973,245 +973,245 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Nitrogen metabolism</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.785714285714286</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9708737864077669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Nucleotide sugars metabolism</t>
+          <t>Lipopolysaccharide biosynthesis</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C27" t="n">
-        <v>4.854368932038835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Lysine metabolism</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.5357142857142857</v>
+        <v>1.551724137931034</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1.219512195121951</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Oxidative phosphorylation</t>
+          <t>Nicotinate and nicotinamide metabolism</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>10.89285714285714</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C29" t="n">
-        <v>5.825242718446602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>PHB byosynthesis</t>
+          <t>Nitrogen metabolism</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1.379310344827586</v>
       </c>
       <c r="C30" t="n">
-        <v>1.941747572815534</v>
+        <v>1.219512195121951</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Pantothenate and CoA biosynthesis</t>
+          <t>Nucleotide sugars metabolism</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.607142857142857</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>3.658536585365853</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Pentose phosphate pathway</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.785714285714286</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C32" t="n">
-        <v>2.912621359223301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Peptidoglycan biosynthesis</t>
+          <t>Oxidative phosphorylation</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.607142857142857</v>
+        <v>1.03448275862069</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9708737864077669</v>
+        <v>1.219512195121951</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
+          <t>PHB byosynthesis</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.107142857142857</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>4.854368932038835</v>
+        <v>2.439024390243902</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Photosynthesis</t>
+          <t>Pantothenate and CoA biosynthesis</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>13.92857142857143</v>
+        <v>1.551724137931034</v>
       </c>
       <c r="C35" t="n">
-        <v>1.941747572815534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Porphyrin and chlorophyll metabolism</t>
+          <t>Pentose phosphate pathway</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.857142857142857</v>
+        <v>1.724137931034483</v>
       </c>
       <c r="C36" t="n">
-        <v>3.883495145631068</v>
+        <v>3.658536585365853</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>Peptidoglycan biosynthesis</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.714285714285714</v>
+        <v>1.379310344827586</v>
       </c>
       <c r="C37" t="n">
-        <v>10.67961165048544</v>
+        <v>1.219512195121951</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Pyrimidine metabolism</t>
+          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.571428571428571</v>
+        <v>3.275862068965517</v>
       </c>
       <c r="C38" t="n">
-        <v>3.883495145631068</v>
+        <v>2.439024390243902</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Pyruvate metabolism</t>
+          <t>Photosynthesis</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.035714285714286</v>
+        <v>1.551724137931034</v>
       </c>
       <c r="C39" t="n">
-        <v>4.854368932038835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Riboflavin metabolism</t>
+          <t>Porphyrin and chlorophyll metabolism</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.25</v>
+        <v>7.06896551724138</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9708737864077669</v>
+        <v>2.439024390243902</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Starch and sucrose metabolism</t>
+          <t>Purine metabolism</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.25</v>
+        <v>4.137931034482759</v>
       </c>
       <c r="C41" t="n">
-        <v>3.883495145631068</v>
+        <v>9.75609756097561</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Steroid biosynthesis</t>
+          <t>Pyrimidine metabolism</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>3.96551724137931</v>
       </c>
       <c r="C42" t="n">
-        <v>1.941747572815534</v>
+        <v>2.439024390243902</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Sterol biosynthesis</t>
+          <t>Pyruvate metabolism</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.7142857142857143</v>
+        <v>1.551724137931034</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>2.439024390243902</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Sulfolipid Biosynthesis</t>
+          <t>Riboflavin metabolism</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.3571428571428572</v>
+        <v>1.724137931034483</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1220,105 +1220,157 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Sulfur Cysteine and methionine metabolism</t>
+          <t>Starch and sucrose metabolism</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.5</v>
+        <v>1.03448275862069</v>
       </c>
       <c r="C45" t="n">
-        <v>3.883495145631068</v>
+        <v>4.878048780487805</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Terpenoid backbone biosynthesis</t>
+          <t>Steroid biosynthesis</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>3.658536585365853</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Thiamine metabolism</t>
+          <t>Sterol biosynthesis</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C47" t="n">
-        <v>2.912621359223301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Sulfolipid Biosynthesis</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>16.78571428571428</v>
+        <v>1.724137931034483</v>
       </c>
       <c r="C48" t="n">
-        <v>5.825242718446602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+          <t>Sulfur Cysteine and methionine metabolism</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1.964285714285714</v>
+        <v>2.413793103448276</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>3.658536585365853</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Urea cycle and metabolism of amino groups</t>
+          <t>Terpenoid backbone biosynthesis</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.25</v>
+        <v>1.551724137931034</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9708737864077669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Valine leucine and isoleucine biosynthesis</t>
+          <t>Thiamine metabolism</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1.607142857142857</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>3.883495145631068</v>
+        <v>4.878048780487805</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
+          <t>Transport</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>7.413793103448276</v>
+      </c>
+      <c r="C52" t="n">
+        <v>4.878048780487805</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2.413793103448276</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Urea cycle and metabolism of amino groups</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1.206896551724138</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.219512195121951</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Valine leucine and isoleucine biosynthesis</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1.896551724137931</v>
+      </c>
+      <c r="C55" t="n">
+        <v>3.658536585365853</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
           <t>Vitamin B6 metabolism</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.9708737864077669</v>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4.878048780487805</v>
       </c>
     </row>
   </sheetData>
@@ -1364,10 +1416,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.192504258943782</v>
+        <v>1.208981001727116</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6329113924050633</v>
+        <v>0.6802721088435374</v>
       </c>
     </row>
     <row r="3">
@@ -1377,7 +1429,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.533219761499148</v>
+        <v>1.55440414507772</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1390,10 +1442,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.836456558773425</v>
+        <v>7.944732297063902</v>
       </c>
       <c r="C4" t="n">
-        <v>7.59493670886076</v>
+        <v>8.163265306122449</v>
       </c>
     </row>
     <row r="5">
@@ -1403,10 +1455,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.155025553662692</v>
+        <v>7.253886010362693</v>
       </c>
       <c r="C5" t="n">
-        <v>8.860759493670887</v>
+        <v>9.523809523809524</v>
       </c>
     </row>
     <row r="6">
@@ -1416,7 +1468,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1703577512776831</v>
+        <v>0.1727115716753022</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1429,10 +1481,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.236797274275979</v>
+        <v>3.10880829015544</v>
       </c>
       <c r="C7" t="n">
-        <v>3.79746835443038</v>
+        <v>2.72108843537415</v>
       </c>
     </row>
     <row r="8">
@@ -1442,7 +1494,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.703577512776831</v>
+        <v>1.727115716753023</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1455,10 +1507,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.022146507666099</v>
+        <v>1.036269430051814</v>
       </c>
       <c r="C9" t="n">
-        <v>1.265822784810127</v>
+        <v>1.360544217687075</v>
       </c>
     </row>
     <row r="10">
@@ -1468,10 +1520,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.01362862010221</v>
+        <v>15.5440414507772</v>
       </c>
       <c r="C10" t="n">
-        <v>7.59493670886076</v>
+        <v>6.122448979591837</v>
       </c>
     </row>
     <row r="11">
@@ -1481,7 +1533,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6814310051107325</v>
+        <v>0.690846286701209</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1494,7 +1546,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6814310051107325</v>
+        <v>0.690846286701209</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1507,10 +1559,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.022146507666099</v>
+        <v>1.036269430051814</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6329113924050633</v>
+        <v>0.6802721088435374</v>
       </c>
     </row>
     <row r="14">
@@ -1520,10 +1572,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.407155025553663</v>
+        <v>3.454231433506045</v>
       </c>
       <c r="C14" t="n">
-        <v>2.531645569620253</v>
+        <v>2.72108843537415</v>
       </c>
     </row>
   </sheetData>
@@ -1537,7 +1589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1569,10 +1621,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.703577512776831</v>
+        <v>1.477832512315271</v>
       </c>
       <c r="C2" t="n">
-        <v>1.265822784810127</v>
+        <v>1.492537313432836</v>
       </c>
     </row>
     <row r="3">
@@ -1582,10 +1634,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6814310051107325</v>
+        <v>0.8210180623973727</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6329113924050633</v>
+        <v>0.7462686567164178</v>
       </c>
     </row>
     <row r="4">
@@ -1595,59 +1647,59 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.407155025553663</v>
+        <v>2.791461412151067</v>
       </c>
       <c r="C4" t="n">
-        <v>7.59493670886076</v>
+        <v>8.955223880597014</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Biotin metabolism</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.1642036124794745</v>
       </c>
       <c r="C5" t="n">
-        <v>1.89873417721519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>C5-Branched dibasic acid metabolism</t>
+          <t>Biotin metabolism</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8517887563884157</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6329113924050633</v>
+        <v>2.238805970149254</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Carbon fixation</t>
+          <t>C5-Branched dibasic acid metabolism</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.192504258943782</v>
+        <v>0.4926108374384237</v>
       </c>
       <c r="C7" t="n">
-        <v>1.265822784810127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Carotenoid Biosynthesis</t>
+          <t>Carbon fixation</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.192504258943782</v>
+        <v>0.9852216748768473</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1656,11 +1708,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Citrate cycle (TCA cycle)</t>
+          <t>Carotenoid Biosynthesis</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.192504258943782</v>
+        <v>2.134646962233169</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1669,180 +1721,180 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Cyanophycin metabolism</t>
+          <t>Citrate cycle (TCA cycle)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3407155025553663</v>
+        <v>0.9852216748768473</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6329113924050633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fatty acid biosynthesis</t>
+          <t>Cyanophycin metabolism</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.066439522998297</v>
+        <v>0.3284072249589491</v>
       </c>
       <c r="C11" t="n">
-        <v>1.89873417721519</v>
+        <v>0.7462686567164178</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Folate biosynthesis</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.044293015332197</v>
+        <v>3.119868637110017</v>
       </c>
       <c r="C12" t="n">
-        <v>1.265822784810127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Fructose and mannose metabolism</t>
+          <t>Fatty acid biosynthesis</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3407155025553663</v>
+        <v>16.7487684729064</v>
       </c>
       <c r="C13" t="n">
-        <v>7.59493670886076</v>
+        <v>0.7462686567164178</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Galactolipids metabolism</t>
+          <t>Folate biosynthesis</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3407155025553663</v>
+        <v>2.134646962233169</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.492537313432836</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Glutamate metabolism</t>
+          <t>Fructose and mannose metabolism</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.192504258943782</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>5.970149253731343</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Glutathione metabolism</t>
+          <t>Galactolipids metabolism</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1703577512776831</v>
+        <v>4.433497536945813</v>
       </c>
       <c r="C16" t="n">
-        <v>2.531645569620253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Glycerolipid metabolism</t>
+          <t>Glutamate metabolism</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6814310051107325</v>
+        <v>1.149425287356322</v>
       </c>
       <c r="C17" t="n">
-        <v>2.531645569620253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Glutathione metabolism</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.918228279386712</v>
+        <v>0.1642036124794745</v>
       </c>
       <c r="C18" t="n">
-        <v>6.962025316455696</v>
+        <v>2.238805970149254</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Glyoxylate and dicarboxylate metabolism</t>
+          <t>Glycerolipid metabolism</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.066439522998297</v>
+        <v>0.6568144499178982</v>
       </c>
       <c r="C19" t="n">
-        <v>3.79746835443038</v>
+        <v>1.492537313432836</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Histidine metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.044293015332197</v>
+        <v>3.61247947454844</v>
       </c>
       <c r="C20" t="n">
-        <v>1.265822784810127</v>
+        <v>5.223880597014925</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Hydrogen production</t>
+          <t>Glyoxylate and dicarboxylate metabolism</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5110732538330494</v>
+        <v>2.134646962233169</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1.492537313432836</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Inositol phosphate metabolism</t>
+          <t>Histidine metabolism</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1703577512776831</v>
+        <v>1.477832512315271</v>
       </c>
       <c r="C22" t="n">
-        <v>3.164556962025316</v>
+        <v>1.492537313432836</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide biosynthesis</t>
+          <t>Hydrogen production</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8517887563884157</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1851,271 +1903,271 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Lysine metabolism</t>
+          <t>Inositol phosphate metabolism</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.362862010221465</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.265822784810127</v>
+        <v>1.492537313432836</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Nicotinate and nicotinamide metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.192504258943782</v>
+        <v>0.1642036124794745</v>
       </c>
       <c r="C25" t="n">
-        <v>1.265822784810127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Nitrogen metabolism</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.214650766609881</v>
+        <v>0.1642036124794745</v>
       </c>
       <c r="C26" t="n">
-        <v>1.265822784810127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Nucleotide sugars metabolism</t>
+          <t>Lipopolysaccharide biosynthesis</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.8210180623973727</v>
       </c>
       <c r="C27" t="n">
-        <v>3.79746835443038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Lysine metabolism</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.5110732538330494</v>
+        <v>1.477832512315271</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6329113924050633</v>
+        <v>1.492537313432836</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Oxidative phosphorylation</t>
+          <t>Nicotinate and nicotinamide metabolism</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>11.41396933560477</v>
+        <v>0.8210180623973727</v>
       </c>
       <c r="C29" t="n">
-        <v>6.329113924050633</v>
+        <v>1.492537313432836</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>PHB byosynthesis</t>
+          <t>Nitrogen metabolism</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1.80623973727422</v>
       </c>
       <c r="C30" t="n">
-        <v>2.531645569620253</v>
+        <v>0.7462686567164178</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Pantothenate and CoA biosynthesis</t>
+          <t>Nucleotide sugars metabolism</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.533219761499148</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>2.985074626865671</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Pentose phosphate pathway</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.703577512776831</v>
+        <v>0.6568144499178982</v>
       </c>
       <c r="C32" t="n">
-        <v>1.89873417721519</v>
+        <v>1.492537313432836</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Peptidoglycan biosynthesis</t>
+          <t>Oxidative phosphorylation</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.533219761499148</v>
+        <v>0.8210180623973727</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6329113924050633</v>
+        <v>0.7462686567164178</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
+          <t>PHB byosynthesis</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.088586030664395</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>5.69620253164557</v>
+        <v>1.492537313432836</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Photosynthesis</t>
+          <t>Pantothenate and CoA biosynthesis</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>14.65076660988075</v>
+        <v>1.477832512315271</v>
       </c>
       <c r="C35" t="n">
-        <v>3.79746835443038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Porphyrin and chlorophyll metabolism</t>
+          <t>Pentose phosphate pathway</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.495741056218058</v>
+        <v>1.477832512315271</v>
       </c>
       <c r="C36" t="n">
-        <v>6.329113924050633</v>
+        <v>2.238805970149254</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Purine metabolism</t>
+          <t>Peptidoglycan biosynthesis</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.45144804088586</v>
+        <v>1.313628899835796</v>
       </c>
       <c r="C37" t="n">
-        <v>7.59493670886076</v>
+        <v>0.7462686567164178</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Pyrimidine metabolism</t>
+          <t>Phenylalanine tyrosine and tryptophan biosynthesis</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.407155025553663</v>
+        <v>3.119868637110017</v>
       </c>
       <c r="C38" t="n">
-        <v>3.164556962025316</v>
+        <v>5.223880597014925</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Pyruvate metabolism</t>
+          <t>Photosynthesis</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.918228279386712</v>
+        <v>1.477832512315271</v>
       </c>
       <c r="C39" t="n">
-        <v>3.164556962025316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Riboflavin metabolism</t>
+          <t>Porphyrin and chlorophyll metabolism</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.192504258943782</v>
+        <v>6.732348111658457</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6329113924050633</v>
+        <v>5.223880597014925</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Starch and sucrose metabolism</t>
+          <t>Purine metabolism</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.022146507666099</v>
+        <v>4.433497536945813</v>
       </c>
       <c r="C41" t="n">
-        <v>4.430379746835443</v>
+        <v>5.970149253731343</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Steroid biosynthesis</t>
+          <t>Pyrimidine metabolism</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>3.940886699507389</v>
       </c>
       <c r="C42" t="n">
-        <v>1.265822784810127</v>
+        <v>2.238805970149254</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Sterol biosynthesis</t>
+          <t>Pyruvate metabolism</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.8517887563884157</v>
+        <v>2.298850574712644</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>2.985074626865671</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Sulfolipid Biosynthesis</t>
+          <t>Riboflavin metabolism</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.3407155025553663</v>
+        <v>1.642036124794745</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -2124,105 +2176,157 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Sulfur Cysteine and methionine metabolism</t>
+          <t>Starch and sucrose metabolism</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.385008517887564</v>
+        <v>0.6568144499178982</v>
       </c>
       <c r="C45" t="n">
-        <v>3.164556962025316</v>
+        <v>4.477611940298507</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Terpenoid backbone biosynthesis</t>
+          <t>Steroid biosynthesis</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.192504258943782</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>2.238805970149254</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Thiamine metabolism</t>
+          <t>Sterol biosynthesis</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>0.9852216748768473</v>
       </c>
       <c r="C47" t="n">
-        <v>2.531645569620253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Transport</t>
+          <t>Sulfolipid Biosynthesis</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>16.01362862010222</v>
+        <v>1.642036124794745</v>
       </c>
       <c r="C48" t="n">
-        <v>9.49367088607595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+          <t>Sulfur Cysteine and methionine metabolism</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1.873935264054515</v>
+        <v>2.298850574712644</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>3.731343283582089</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Urea cycle and metabolism of amino groups</t>
+          <t>Terpenoid backbone biosynthesis</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.192504258943782</v>
+        <v>1.477832512315271</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6329113924050633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Valine leucine and isoleucine biosynthesis</t>
+          <t>Thiamine metabolism</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1.703577512776831</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>3.164556962025316</v>
+        <v>3.731343283582089</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
+          <t>Transport</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>7.060755336617405</v>
+      </c>
+      <c r="C52" t="n">
+        <v>7.462686567164178</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Ubiquinone and other pterpenoids biosynthesis</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2.298850574712644</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Urea cycle and metabolism of amino groups</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1.149425287356322</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.7462686567164178</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Valine leucine and isoleucine biosynthesis</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1.970443349753695</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2.985074626865671</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
           <t>Vitamin B6 metabolism</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1.265822784810127</v>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>3.731343283582089</v>
       </c>
     </row>
   </sheetData>
